--- a/SMG2 Bingo Cheat Sheet.xlsx
+++ b/SMG2 Bingo Cheat Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joean\Desktop\SMG2 Bingo Mod Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joean\Documents\SMG2-Bingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF8D6-2D5B-4CE9-AE85-4993A1A02DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E0B603-1BDA-4706-8452-AAAFACB3799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05086300-188C-47C4-B5A4-86EFC405464C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Sky Station Galaxy</t>
   </si>
@@ -226,6 +226,9 @@
 The Banktoad appearance cutscene no longer plays and Banktoad never appears in normal gameplay. This is because Banktoad is banned in SMG2 Bingo.
 The Mailtoad appearance cutscene now plays after collecting 3 stars, but the actual Mailtoad does not spawn until the normal 13 stars. This is necessary to prevent a crash, and ultimately should have little effect on gameplay.
 The Star Board appearance cutscene has been changed to 4 stars (from 16). It appears properly for this cutscene and can be used from that point on.</t>
+  </si>
+  <si>
+    <t>World Map Layout</t>
   </si>
 </sst>
 </file>
@@ -293,6 +296,438 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFEBD23-E98C-4ED1-9BE2-DBAC7870EBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204959" y="1472460"/>
+          <a:ext cx="4130041" cy="790679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8148</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609384</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89C38AD-D1EB-4480-AEA7-8FB388356EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9205488" y="2565655"/>
+          <a:ext cx="4129296" cy="749045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEA4222-8225-40AF-AA9F-EBAA1830DDB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204960" y="366946"/>
+          <a:ext cx="4130040" cy="821773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9662</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D39C66-1775-41D8-9559-2A92AD0A8B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204959" y="3662958"/>
+          <a:ext cx="4139703" cy="771882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0725E4A-49AB-4C94-8F86-969E12BDA36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204960" y="4759511"/>
+          <a:ext cx="4130040" cy="841187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6402</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F477B15F-DF67-424B-8596-01F3B25896C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204960" y="5859780"/>
+          <a:ext cx="4136442" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9170</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72C2EE4-E9A4-470D-84A2-3A6A1C67E5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9197340" y="6954830"/>
+          <a:ext cx="4146830" cy="901390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B979F80C-8F78-4CCC-BFF1-0B91D2247A02}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,9 +1042,10 @@
     <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -631,8 +1067,11 @@
       <c r="I1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +1163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +1186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,7 +1209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +1232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -833,7 +1272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -850,7 +1289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -867,7 +1306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,7 +1323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -901,7 +1340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -918,7 +1357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,5 +1689,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SMG2 Bingo Cheat Sheet.xlsx
+++ b/SMG2 Bingo Cheat Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joean\Documents\SMG2-Bingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E0B603-1BDA-4706-8452-AAAFACB3799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13960A16-CA37-4F93-872E-1079E23D8A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05086300-188C-47C4-B5A4-86EFC405464C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Sky Station Galaxy</t>
   </si>
@@ -183,37 +183,7 @@
     <t>Star Requirement</t>
   </si>
   <si>
-    <t>World 1 (End)</t>
-  </si>
-  <si>
-    <t>World 6 (Throwback)</t>
-  </si>
-  <si>
-    <t>World 6 (Battle Belt)</t>
-  </si>
-  <si>
-    <t>World 6 (Portal)</t>
-  </si>
-  <si>
-    <t>World S (Rolling Coaster)</t>
-  </si>
-  <si>
     <t>World 6 (Galaxy Generator)</t>
-  </si>
-  <si>
-    <t>World S (Twisty Trials)</t>
-  </si>
-  <si>
-    <t>World S (Stone Cyclone)</t>
-  </si>
-  <si>
-    <t>World S (Boss Blitz)</t>
-  </si>
-  <si>
-    <t>World S (Flip Out)</t>
-  </si>
-  <si>
-    <t>World 1 (Middle)</t>
   </si>
   <si>
     <t>Galaxies with Comets</t>
@@ -229,6 +199,9 @@
   </si>
   <si>
     <t>World Map Layout</t>
+  </si>
+  <si>
+    <t>World 6 (World S Portal)</t>
   </si>
 </sst>
 </file>
@@ -425,67 +398,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91439</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEA4222-8225-40AF-AA9F-EBAA1830DDB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9204960" y="366946"/>
-          <a:ext cx="4130040" cy="821773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>7619</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>5358</xdr:rowOff>
@@ -510,7 +422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -571,7 +483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -608,60 +520,87 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6402</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605532</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F477B15F-DF67-424B-8596-01F3B25896C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60364B70-13F0-4B9F-8684-8CAFAC1F5933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9204960" y="5859780"/>
-          <a:ext cx="4136442" cy="769620"/>
+          <a:off x="9204959" y="370059"/>
+          <a:ext cx="4125973" cy="879621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608658</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBBCC19-8A07-490B-9244-7F61BA3D4174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="5859959"/>
+          <a:ext cx="4129098" cy="830401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -670,59 +609,42 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5390</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9170</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72C2EE4-E9A4-470D-84A2-3A6A1C67E5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB54E722-6261-41BE-81A4-EC9D97B820D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9197340" y="6954830"/>
-          <a:ext cx="4146830" cy="901390"/>
+          <a:off x="9197340" y="6947457"/>
+          <a:ext cx="4145280" cy="1211356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1030,7 +952,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,10 +969,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1068,7 +990,7 @@
         <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1088,10 +1010,10 @@
         <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1111,10 +1033,10 @@
         <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1134,10 +1056,10 @@
         <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1157,10 +1079,10 @@
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,10 +1102,10 @@
         <v>550</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1203,10 +1125,10 @@
         <v>600</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1226,10 +1148,10 @@
         <v>600</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1248,12 +1170,6 @@
       <c r="F9">
         <v>3100</v>
       </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1265,12 +1181,6 @@
       <c r="C10" s="1">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1282,12 +1192,6 @@
       <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1299,12 +1203,6 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1316,12 +1214,6 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1333,12 +1225,6 @@
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14">
-        <v>38</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1350,12 +1236,6 @@
       <c r="C15" s="1">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15">
-        <v>39</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1367,12 +1247,6 @@
       <c r="C16" s="1">
         <v>27</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16">
-        <v>40</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1418,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>

--- a/SMG2 Bingo Cheat Sheet.xlsx
+++ b/SMG2 Bingo Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joean\Documents\SMG2-Bingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13960A16-CA37-4F93-872E-1079E23D8A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3C974-BE75-490C-84E3-34C8C78D1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05086300-188C-47C4-B5A4-86EFC405464C}"/>
+    <workbookView xWindow="0" yWindow="2976" windowWidth="17280" windowHeight="8964" xr2:uid="{05086300-188C-47C4-B5A4-86EFC405464C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
@@ -1076,7 +1076,7 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -1099,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="F6">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -1122,7 +1122,7 @@
         <v>43</v>
       </c>
       <c r="F7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="F8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H8" t="s">
         <v>49</v>
@@ -1168,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="F9">
-        <v>3100</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
